--- a/01.requirement/功能列表/九州国际_市场管理系统_功能列表_Excel.xlsx
+++ b/01.requirement/功能列表/九州国际_市场管理系统_功能列表_Excel.xlsx
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1310,11 +1310,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A63:A67"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A10"/>
@@ -1324,6 +1319,11 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
